--- a/test_files/Pharmscripts Emailed Invoice.xlsx
+++ b/test_files/Pharmscripts Emailed Invoice.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>BillDt</t>
   </si>
@@ -102,9 +102,6 @@
     <t>WHHL</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -117,18 +114,9 @@
     <t>GARABIS, FRANCISCO</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>MANMD</t>
-  </si>
-  <si>
     <t>RHEE, CHOO</t>
   </si>
   <si>
-    <t>MCD</t>
-  </si>
-  <si>
     <t>OTC</t>
   </si>
   <si>
@@ -181,6 +169,9 @@
   </si>
   <si>
     <t>CCVGD, TRKCTVY</t>
+  </si>
+  <si>
+    <t>MEDICAID</t>
   </si>
 </sst>
 </file>
@@ -555,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -676,19 +667,19 @@
         <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
       </c>
       <c r="I2" s="7">
         <v>1616666</v>
@@ -700,25 +691,25 @@
         <v>44080</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="S2" s="9">
         <v>30</v>
@@ -742,19 +733,19 @@
         <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
       </c>
       <c r="I3" s="7">
         <v>1616666</v>
@@ -766,25 +757,25 @@
         <v>44083</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="S3" s="9">
         <v>30</v>
@@ -809,19 +800,19 @@
         <v>27</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
       </c>
       <c r="I4" s="7">
         <v>1616666</v>
@@ -833,25 +824,25 @@
         <v>44092</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
         <v>51</v>
-      </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>36</v>
       </c>
       <c r="S4" s="9">
         <v>3</v>
@@ -875,19 +866,19 @@
         <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
       </c>
       <c r="I5" s="7">
         <v>1616666</v>
@@ -899,25 +890,25 @@
         <v>44094</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
         <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>36</v>
       </c>
       <c r="S5" s="9">
         <v>3</v>
@@ -941,19 +932,19 @@
         <v>27</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
       <c r="I6" s="7">
         <v>1616606</v>
@@ -965,25 +956,25 @@
         <v>44083</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
-        <v>30</v>
-      </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="S6" s="9">
         <v>30</v>
